--- a/data/raw/rooms.xlsx
+++ b/data/raw/rooms.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Hertie\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zech011\win-repos\DSA\dsa-room-booking\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214EACE9-A712-47F9-99E0-B20524BE1C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>capacity</t>
   </si>
@@ -49,11 +41,23 @@
   <si>
     <t>name</t>
   </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>available_places</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,15 +87,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,21 +374,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -398,8 +405,17 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2.31</v>
       </c>
@@ -415,8 +431,17 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2.3199999999999998</v>
       </c>
@@ -432,8 +457,17 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2.35</v>
       </c>
@@ -449,8 +483,17 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2.4</v>
       </c>
@@ -466,8 +509,17 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2.6</v>
       </c>
@@ -483,8 +535,17 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2.71</v>
       </c>
@@ -500,8 +561,17 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3.01</v>
       </c>
@@ -517,8 +587,17 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>3.1</v>
       </c>
@@ -534,8 +613,17 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3.22</v>
       </c>
@@ -551,8 +639,17 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3.33</v>
       </c>
@@ -568,8 +665,17 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>3.35</v>
       </c>
@@ -585,8 +691,17 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3.4</v>
       </c>
@@ -602,8 +717,17 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>3.5</v>
       </c>
@@ -619,8 +743,17 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3.6</v>
       </c>
@@ -636,9 +769,18 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
+      <c r="F15" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A16">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -647,18 +789,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -794,18 +936,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{685FC973-4684-4919-833E-67D2FA22563E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3173D0C2-0D74-41F9-A5D6-C97CB92F233A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{685FC973-4684-4919-833E-67D2FA22563E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/raw/rooms.xlsx
+++ b/data/raw/rooms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zech011\win-repos\DSA\dsa-room-booking\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214EACE9-A712-47F9-99E0-B20524BE1C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADD0BC1-5D63-4800-AFB3-FB00D00C2095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>capacity</t>
   </si>
@@ -42,13 +42,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>day</t>
+    <t>available_places</t>
   </si>
   <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>available_places</t>
+    <t>date_time</t>
   </si>
 </sst>
 </file>
@@ -56,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -87,14 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -375,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,10 +382,10 @@
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -406,16 +402,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2.31</v>
       </c>
@@ -432,16 +425,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H2">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2.3199999999999998</v>
       </c>
@@ -458,16 +448,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H3">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2.35</v>
       </c>
@@ -484,16 +471,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H4">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2.4</v>
       </c>
@@ -510,16 +494,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H5">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2.6</v>
       </c>
@@ -536,16 +517,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H6">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2.71</v>
       </c>
@@ -562,16 +540,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H7">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3.01</v>
       </c>
@@ -588,16 +563,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H8">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G8">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>3.1</v>
       </c>
@@ -614,16 +586,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H9">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3.22</v>
       </c>
@@ -640,16 +609,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H10">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3.33</v>
       </c>
@@ -666,16 +632,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H11">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>3.35</v>
       </c>
@@ -692,16 +655,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H12">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3.4</v>
       </c>
@@ -718,16 +678,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H13">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>3.5</v>
       </c>
@@ -744,16 +701,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H14">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G14">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3.6</v>
       </c>
@@ -770,12 +724,9 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>44562</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H15">
+        <v>44562.416666666664</v>
+      </c>
+      <c r="G15">
         <v>4</v>
       </c>
     </row>
